--- a/Simulation_Lab/mid_lab_1/grocery.xlsx
+++ b/Simulation_Lab/mid_lab_1/grocery.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>IAT</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>customer no</t>
+  </si>
+  <si>
+    <t>count of wait custmer</t>
+  </si>
+  <si>
+    <t>runtime = time service end</t>
+  </si>
+  <si>
+    <t>total service time / customer</t>
+  </si>
+  <si>
+    <t>total arrival time / customer -1</t>
   </si>
 </sst>
 </file>
@@ -108,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,23 +440,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -537,11 +552,11 @@
       </c>
       <c r="E3" s="1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1">
         <f ca="1">IF(E3&lt;=10, 1, IF(E3&lt;=30, 2, IF(E3&lt;=60, 3, IF(E3&lt;=85, 4, IF(E3&lt;=95,5, IF(E3&lt;=100, 6))))))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1">
         <f>MAX(I2,D3)</f>
@@ -553,13 +568,14 @@
       </c>
       <c r="I3" s="1">
         <f ca="1">G3+F3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1">
         <f ca="1">H3+F3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1">
+        <f>G3-I2</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
@@ -573,27 +589,27 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B8" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>84</v>
+        <v>477</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C8" ca="1" si="1">IF(B4&lt;=125, 1, IF(B4&lt;=250, 2, IF(B4&lt;=375, 3, IF(B4&lt;=500, 4, IF(B4&lt;=625,5, IF(B4&lt;=750, 6, IF(B4&lt;=875, 7, IF(B4&lt;=1000, 8))))))))</f>
-        <v>1</v>
+        <f ca="1">IF(B4&lt;=125, 1, IF(B4&lt;=250, 2, IF(B4&lt;=375, 3, IF(B4&lt;=500, 4, IF(B4&lt;=625,5, IF(B4&lt;=750, 6, IF(B4&lt;=875, 7, IF(B4&lt;=1000, 8))))))))</f>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">D3+C4</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E8" ca="1" si="2">RANDBETWEEN(1,100)</f>
-        <v>76</v>
+        <f t="shared" ref="E4:E8" ca="1" si="1">RANDBETWEEN(1,100)</f>
+        <v>38</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F9" ca="1" si="3">IF(E4&lt;=10, 1, IF(E4&lt;=30, 2, IF(E4&lt;=60, 3, IF(E4&lt;=85, 4, IF(E4&lt;=95,5, IF(E4&lt;=100, 6))))))</f>
-        <v>4</v>
+        <f t="shared" ref="F4:F9" ca="1" si="2">IF(E4&lt;=10, 1, IF(E4&lt;=30, 2, IF(E4&lt;=60, 3, IF(E4&lt;=85, 4, IF(E4&lt;=95,5, IF(E4&lt;=100, 6))))))</f>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G8" ca="1" si="4">MAX(I3,D4)</f>
-        <v>3</v>
+        <f t="shared" ref="G4:G8" ca="1" si="3">MAX(I3,D4)</f>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <f ca="1">IF(I3&gt;D4, I3-D4,0)</f>
@@ -601,14 +617,14 @@
       </c>
       <c r="I4" s="1">
         <f ca="1">G4+F4</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J9" ca="1" si="5">H4+F4</f>
-        <v>6</v>
-      </c>
-      <c r="K4" s="1">
-        <f ca="1">G4-I3</f>
+        <f t="shared" ref="J4:J9" ca="1" si="4">H4+F4</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K8" ca="1" si="5">G4-I3</f>
         <v>0</v>
       </c>
       <c r="L4" s="1">
@@ -622,42 +638,42 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C4:C8" ca="1" si="7">IF(B5&lt;=125, 1, IF(B5&lt;=250, 2, IF(B5&lt;=375, 3, IF(B5&lt;=500, 4, IF(B5&lt;=625,5, IF(B5&lt;=750, 6, IF(B5&lt;=875, 7, IF(B5&lt;=1000, 8))))))))</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D8" ca="1" si="8">D4+C5</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D8" ca="1" si="7">D4+C5</f>
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H8" ca="1" si="9">IF(I4&gt;D5, I4-D5,0)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I8" ca="1" si="10">G5+F5</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H8" ca="1" si="8">IF(I4&gt;D5, I4-D5,0)</f>
-        <v>3</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I8" ca="1" si="9">G5+F5</f>
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" ref="K5:K8" ca="1" si="10">G5-I4</f>
         <v>0</v>
       </c>
       <c r="L5" s="1">
@@ -671,42 +687,42 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>592</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L6" s="1">
@@ -720,42 +736,42 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>616</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="J7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="L7" s="1">
@@ -769,147 +785,171 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>945</v>
+        <v>564</v>
       </c>
       <c r="C8" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" ca="1" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <f ca="1">SUM(C3:C8)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H9" s="1">
         <f ca="1">SUM(H3:H8)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <f ca="1">SUM(J3:J8)</f>
+        <v>38</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">SUM(K3:K8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <f ca="1">SUM(L2:L8)</f>
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1">
+        <f ca="1">COUNTIF(H2:H8,"&gt;0")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="1">
         <f ca="1">H9/6</f>
-        <v>1.8333333333333333</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1">
         <f ca="1">L9/6</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1">
-        <f ca="1">L9/I8</f>
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+        <f ca="1">K9/I8</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="1">
         <f>F9/A8</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="1">
         <f ca="1">D8/5</f>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+        <v>3.2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1">
         <f ca="1">H9/L9</f>
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="1">
         <f ca="1">J9/6</f>
-        <v>2</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A14:B14"/>

--- a/Simulation_Lab/mid_lab_1/grocery.xlsx
+++ b/Simulation_Lab/mid_lab_1/grocery.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>IAT</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>total arrival time / customer -1</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>iat</t>
   </si>
 </sst>
 </file>
@@ -132,10 +141,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,11 +561,11 @@
       </c>
       <c r="E3" s="1">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1">
         <f ca="1">IF(E3&lt;=10, 1, IF(E3&lt;=30, 2, IF(E3&lt;=60, 3, IF(E3&lt;=85, 4, IF(E3&lt;=95,5, IF(E3&lt;=100, 6))))))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="1">
         <f>MAX(I2,D3)</f>
@@ -568,11 +577,11 @@
       </c>
       <c r="I3" s="1">
         <f ca="1">G3+F3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1">
         <f ca="1">H3+F3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" s="1">
         <f>G3-I2</f>
@@ -589,39 +598,39 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B8" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>477</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">IF(B4&lt;=125, 1, IF(B4&lt;=250, 2, IF(B4&lt;=375, 3, IF(B4&lt;=500, 4, IF(B4&lt;=625,5, IF(B4&lt;=750, 6, IF(B4&lt;=875, 7, IF(B4&lt;=1000, 8))))))))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">D3+C4</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E8" ca="1" si="1">RANDBETWEEN(1,100)</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F9" ca="1" si="2">IF(E4&lt;=10, 1, IF(E4&lt;=30, 2, IF(E4&lt;=60, 3, IF(E4&lt;=85, 4, IF(E4&lt;=95,5, IF(E4&lt;=100, 6))))))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G8" ca="1" si="3">MAX(I3,D4)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
         <f ca="1">IF(I3&gt;D4, I3-D4,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">G4+F4</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J9" ca="1" si="4">H4+F4</f>
-        <v>5</v>
+        <f t="shared" ref="J4:J8" ca="1" si="4">H4+F4</f>
+        <v>4</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K8" ca="1" si="5">G4-I3</f>
@@ -638,35 +647,35 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C4:C8" ca="1" si="7">IF(B5&lt;=125, 1, IF(B5&lt;=250, 2, IF(B5&lt;=375, 3, IF(B5&lt;=500, 4, IF(B5&lt;=625,5, IF(B5&lt;=750, 6, IF(B5&lt;=875, 7, IF(B5&lt;=1000, 8))))))))</f>
-        <v>1</v>
+        <f t="shared" ref="C5:C8" ca="1" si="7">IF(B5&lt;=125, 1, IF(B5&lt;=250, 2, IF(B5&lt;=375, 3, IF(B5&lt;=500, 4, IF(B5&lt;=625,5, IF(B5&lt;=750, 6, IF(B5&lt;=875, 7, IF(B5&lt;=1000, 8))))))))</f>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D8" ca="1" si="8">D4+C5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H8" ca="1" si="9">IF(I4&gt;D5, I4-D5,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ref="I5:I8" ca="1" si="10">G5+F5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="4"/>
@@ -687,7 +696,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="7"/>
@@ -695,19 +704,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="9"/>
@@ -715,11 +724,11 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -736,39 +745,39 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>616</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -785,53 +794,53 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>564</v>
+        <v>989</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <f ca="1">SUM(C3:C8)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="2"/>
@@ -839,19 +848,19 @@
       </c>
       <c r="H9" s="1">
         <f ca="1">SUM(H3:H8)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">SUM(J3:J8)</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">SUM(K3:K8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
         <f ca="1">SUM(L2:L8)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -860,90 +869,123 @@
       </c>
       <c r="H12" s="1">
         <f ca="1">COUNTIF(H2:H8,"&gt;0")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1">
         <f ca="1">H9/6</f>
-        <v>2.5</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1">
         <f ca="1">L9/6</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1">
         <f ca="1">K9/I8</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1">
         <f>F9/A8</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1">
         <f ca="1">D8/5</f>
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1">
         <f ca="1">H9/L9</f>
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1">
         <f ca="1">J9/6</f>
-        <v>6.333333333333333</v>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>345345</v>
+      </c>
+      <c r="C35" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>345345</v>
+      </c>
+      <c r="C36" s="1">
+        <v>67868</v>
       </c>
     </row>
   </sheetData>
